--- a/data/arac.xlsx
+++ b/data/arac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazilim1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mertulu/Route_Optimization_DSS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37854F1A-E5DF-4538-9322-478029368418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0B68F-5C0A-2247-BBD3-7CB5AE5CA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2352" windowWidth="22680" windowHeight="9540" xr2:uid="{A4E517DF-E178-4D8E-BC30-A01D9F59E5AE}"/>
+    <workbookView xWindow="4340" yWindow="2360" windowWidth="22680" windowHeight="9540" xr2:uid="{A4E517DF-E178-4D8E-BC30-A01D9F59E5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,17 +420,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,12 +447,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>200000</v>
@@ -464,12 +464,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>200000</v>
@@ -481,12 +481,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>200000</v>
@@ -498,12 +498,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>200000</v>
@@ -515,12 +515,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>200000</v>
@@ -532,12 +532,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>200000</v>
@@ -549,12 +549,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>200000</v>
@@ -566,12 +566,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>200000</v>
@@ -583,12 +583,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>200000</v>
@@ -600,12 +600,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>300200</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>200000</v>

--- a/data/arac.xlsx
+++ b/data/arac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazilim1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/dss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37854F1A-E5DF-4538-9322-478029368418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F0A55B-D7EC-4E4F-AC66-453E335E5492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2352" windowWidth="22680" windowHeight="9540" xr2:uid="{A4E517DF-E178-4D8E-BC30-A01D9F59E5AE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{A4E517DF-E178-4D8E-BC30-A01D9F59E5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,17 +420,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,12 +447,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>200000</v>
@@ -464,12 +464,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>200000</v>
@@ -481,12 +481,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>200000</v>
@@ -498,12 +498,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>200000</v>
@@ -515,12 +515,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>200000</v>
@@ -532,12 +532,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>200000</v>
@@ -549,12 +549,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>200000</v>
@@ -566,12 +566,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>200000</v>
@@ -583,12 +583,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>200000</v>
@@ -600,12 +600,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>300200</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>200000</v>
